--- a/public/assets/leads.xlsx
+++ b/public/assets/leads.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="41">
   <si>
     <t>nationality_type</t>
   </si>
@@ -80,7 +80,7 @@
     <t>meal_type</t>
   </si>
   <si>
-    <t>lead_type</t>
+    <t>source_type</t>
   </si>
   <si>
     <t>lead_source</t>
@@ -110,7 +110,7 @@
     <t>CP</t>
   </si>
   <si>
-    <t>From Website</t>
+    <t>Facebook</t>
   </si>
   <si>
     <t>ExploreMore Holidays</t>
@@ -137,13 +137,16 @@
     <t>5D/4N</t>
   </si>
   <si>
-    <t>From Salesman</t>
+    <t>Website</t>
   </si>
   <si>
     <t>Holiday Planners</t>
   </si>
   <si>
     <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Instagram</t>
   </si>
   <si>
     <t>Premium</t>
@@ -1257,8 +1260,8 @@
   <sheetPr/>
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -1522,7 +1525,7 @@
         <v>26</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>28</v>
@@ -1644,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>28</v>
@@ -1736,7 +1739,7 @@
         <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
@@ -1766,7 +1769,7 @@
         <v>26</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>28</v>
@@ -1826,7 +1829,7 @@
         <v>26</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>37</v>
@@ -1888,7 +1891,7 @@
         <v>26</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>28</v>
@@ -1959,13 +1962,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A3 A4:A5 A6:A7 A8:A9 A10:A11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A11">
       <formula1>"Indian,NRI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I3 I4:I5 I6:I7 I8:I9 I10:I11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I11">
       <formula1>"1D/0N,2D/1N,3D/2N,4D/3N,5D/4N,6D/5N,7D/6N,8D/7N,9D/8N,10D/9N,11D/10N,12D/11N,14D/13N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q3 Q4:Q5 Q6:Q7 Q8:Q9 Q10:Q11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q11">
       <formula1>"CP,MAP,AP,EPA"</formula1>
     </dataValidation>
   </dataValidations>
